--- a/Inputs BT WT 18-19.xlsx
+++ b/Inputs BT WT 18-19.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,19 +41,10 @@
     <t>13:45 – 14:00</t>
   </si>
   <si>
-    <t>BT_WT 2018-19_1st Project_Intro_D-School</t>
-  </si>
-  <si>
     <t>14:45 – 15:00</t>
   </si>
   <si>
-    <t>BT_WT 2018-19_1st Project_Intro_Space (Martin Schwemmle)</t>
-  </si>
-  <si>
     <t>16:00 – 16:15</t>
-  </si>
-  <si>
-    <t>BT_WT 2018-19_1st Project_Input_00 Challenges &amp; Teams</t>
   </si>
   <si>
     <t>24.10.2017</t>
@@ -387,7 +378,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,51 +407,51 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="C5">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
